--- a/results/mp/logistic/corona/confidence/210/masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,21 +40,18 @@
     <t>name</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
@@ -73,12 +70,12 @@
     <t>low</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -88,13 +85,19 @@
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
+    <t>the</t>
   </si>
   <si>
     <t>.</t>
@@ -103,9 +106,6 @@
     <t>to</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -115,103 +115,100 @@
     <t>best</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>are</t>
+    <t>for</t>
   </si>
   <si>
     <t>and</t>
   </si>
   <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
   <si>
     <t>corona</t>
@@ -572,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -583,7 +580,7 @@
         <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -641,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -659,19 +656,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -683,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -691,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -709,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -733,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -741,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8157894736842105</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,10 +765,10 @@
         <v>0.9166666666666666</v>
       </c>
       <c r="L5">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="M5">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -783,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -791,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8055555555555556</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -809,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -833,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -841,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8013698630136986</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C7">
-        <v>234</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>234</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -859,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K7">
-        <v>0.8511749347258486</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L7">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="M7">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -883,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -891,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7297297297297297</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -909,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K8">
-        <v>0.85</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L8">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="M8">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -933,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -941,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6101694915254238</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -959,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K9">
-        <v>0.8203125</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L9">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="M9">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -983,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -991,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5714285714285714</v>
+        <v>0.5310077519379846</v>
       </c>
       <c r="C10">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="D10">
-        <v>108</v>
+        <v>274</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1009,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K10">
-        <v>0.8181818181818182</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1033,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1041,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5329457364341085</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C11">
-        <v>275</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>275</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1059,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>241</v>
+        <v>24</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K11">
-        <v>0.8113207547169812</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L11">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M11">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1083,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1091,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5098039215686274</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1109,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K12">
-        <v>0.8103448275862069</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1133,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1141,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4765100671140939</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C13">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1159,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K13">
-        <v>0.78125</v>
+        <v>0.76875</v>
       </c>
       <c r="L13">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M13">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1183,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1191,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4444444444444444</v>
+        <v>0.425</v>
       </c>
       <c r="C14">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D14">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1209,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K14">
-        <v>0.7804878048780488</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L14">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1233,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1241,13 +1238,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.44</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="C15">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1259,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K15">
-        <v>0.7746478873239436</v>
+        <v>0.7578125</v>
       </c>
       <c r="L15">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="M15">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1283,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1291,13 +1288,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1309,19 +1306,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1333,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1341,13 +1338,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2738095238095238</v>
+        <v>0.1581769436997319</v>
       </c>
       <c r="C17">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D17">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1359,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>183</v>
+        <v>314</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>45</v>
@@ -1391,13 +1388,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1903485254691689</v>
+        <v>0.09</v>
       </c>
       <c r="C18">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1409,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K18">
-        <v>0.746031746031746</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1433,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1441,31 +1438,31 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01901140684410646</v>
+        <v>0.01689902830587241</v>
       </c>
       <c r="C19">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D19">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E19">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="F19">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>2322</v>
+        <v>2327</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K19">
-        <v>0.7446808510638298</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L19">
         <v>35</v>
@@ -1483,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1491,37 +1488,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01591760299625468</v>
+        <v>0.01517597675169519</v>
       </c>
       <c r="C20">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D20">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E20">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F20">
-        <v>0.83</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20">
-        <v>2102</v>
+        <v>3050</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K20">
-        <v>0.7291666666666666</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1533,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1541,37 +1538,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0148530836293187</v>
+        <v>0.01217798594847775</v>
       </c>
       <c r="C21">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E21">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="F21">
-        <v>0.8200000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21">
-        <v>3051</v>
+        <v>2109</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K21">
-        <v>0.6976744186046512</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1583,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1591,37 +1588,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.009096422073984234</v>
+        <v>0.009570312500000001</v>
       </c>
       <c r="C22">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>94</v>
       </c>
       <c r="E22">
+        <v>0.48</v>
+      </c>
+      <c r="F22">
         <v>0.52</v>
       </c>
-      <c r="F22">
-        <v>0.48</v>
-      </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>4902</v>
+        <v>5071</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K22">
-        <v>0.6852941176470588</v>
+        <v>0.7</v>
       </c>
       <c r="L22">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1633,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1641,37 +1638,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.008383791336748951</v>
+        <v>0.007679870654810024</v>
       </c>
       <c r="C23">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D23">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E23">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F23">
-        <v>0.51</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>4258</v>
+        <v>4910</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K23">
-        <v>0.625</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1683,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1691,37 +1688,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.007606787595084845</v>
+        <v>0.006308411214953271</v>
       </c>
       <c r="C24">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E24">
-        <v>0.49</v>
+        <v>0.64</v>
       </c>
       <c r="F24">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>5088</v>
+        <v>4253</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K24">
-        <v>0.6170212765957447</v>
+        <v>0.62</v>
       </c>
       <c r="L24">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1733,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1741,25 +1738,25 @@
         <v>53</v>
       </c>
       <c r="K25">
-        <v>0.6153846153846154</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L25">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="M25">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1767,13 +1764,13 @@
         <v>54</v>
       </c>
       <c r="K26">
-        <v>0.606694560669456</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1785,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>94</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1793,25 +1790,25 @@
         <v>55</v>
       </c>
       <c r="K27">
-        <v>0.5958904109589042</v>
+        <v>0.5899581589958159</v>
       </c>
       <c r="L27">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="M27">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="N27">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1819,13 +1816,13 @@
         <v>56</v>
       </c>
       <c r="K28">
-        <v>0.5617977528089888</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L28">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M28">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1837,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1845,13 +1842,13 @@
         <v>57</v>
       </c>
       <c r="K29">
-        <v>0.5428571428571428</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1863,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1871,13 +1868,13 @@
         <v>58</v>
       </c>
       <c r="K30">
-        <v>0.54</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1889,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1897,13 +1894,13 @@
         <v>59</v>
       </c>
       <c r="K31">
-        <v>0.3835616438356164</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1915,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1923,25 +1920,25 @@
         <v>60</v>
       </c>
       <c r="K32">
-        <v>0.3461538461538461</v>
+        <v>0.03430962343096234</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>51</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1949,25 +1946,25 @@
         <v>61</v>
       </c>
       <c r="K33">
-        <v>0.04857621440536013</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="L33">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="N33">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="O33">
-        <v>0.08999999999999997</v>
+        <v>0.15</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>1136</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1975,25 +1972,25 @@
         <v>62</v>
       </c>
       <c r="K34">
-        <v>0.0196078431372549</v>
+        <v>0.01731275875047045</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M34">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="N34">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="O34">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>1250</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2001,25 +1998,25 @@
         <v>63</v>
       </c>
       <c r="K35">
-        <v>0.01957831325301205</v>
+        <v>0.01400906468891636</v>
       </c>
       <c r="L35">
+        <v>34</v>
+      </c>
+      <c r="M35">
         <v>52</v>
       </c>
-      <c r="M35">
-        <v>69</v>
-      </c>
       <c r="N35">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="O35">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>2604</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2027,25 +2024,25 @@
         <v>64</v>
       </c>
       <c r="K36">
-        <v>0.01341719077568134</v>
+        <v>0.01257334450963956</v>
       </c>
       <c r="L36">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M36">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N36">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="O36">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>2353</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2053,129 +2050,103 @@
         <v>65</v>
       </c>
       <c r="K37">
-        <v>0.01277823577906018</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="L37">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M37">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="N37">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="O37">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>2395</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K38">
-        <v>0.01163156240176045</v>
+        <v>0.01116019530341781</v>
       </c>
       <c r="L38">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="M38">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="N38">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="O38">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
       <c r="P38" t="b">
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>3144</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K39">
-        <v>0.00989699050696829</v>
+        <v>0.009681323114158934</v>
       </c>
       <c r="L39">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M39">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="N39">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O39">
-        <v>0.48</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>4902</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K40">
-        <v>0.007921714818266543</v>
+        <v>0.008795934323690384</v>
       </c>
       <c r="L40">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="M40">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N40">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
       <c r="O40">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>4258</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K41">
-        <v>0.0074131876706984</v>
-      </c>
-      <c r="L41">
-        <v>38</v>
-      </c>
-      <c r="M41">
-        <v>77</v>
-      </c>
-      <c r="N41">
-        <v>0.49</v>
-      </c>
-      <c r="O41">
-        <v>0.51</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>5088</v>
+        <v>5071</v>
       </c>
     </row>
   </sheetData>
